--- a/data/trans_orig/P36B10-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B10-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>68707</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54337</v>
+        <v>52916</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88245</v>
+        <v>86785</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06675906569653436</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05279623863195099</v>
+        <v>0.05141597767425694</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08574375853171175</v>
+        <v>0.08432444614719491</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>122</v>
@@ -764,19 +764,19 @@
         <v>125570</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>106965</v>
+        <v>106401</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>149294</v>
+        <v>151589</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09570724516696402</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08152691083554692</v>
+        <v>0.0810971636540504</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1137892235986813</v>
+        <v>0.1155390885981335</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>189</v>
@@ -785,19 +785,19 @@
         <v>194276</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>167827</v>
+        <v>170266</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>220052</v>
+        <v>224091</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08298179014569147</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07168427560640746</v>
+        <v>0.07272629492761654</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09399130031028818</v>
+        <v>0.09571675298583412</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>152504</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>131104</v>
+        <v>131090</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>175474</v>
+        <v>176135</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1481809725804</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1273874624113833</v>
+        <v>0.1273738038953143</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1704996279594004</v>
+        <v>0.1711419349495149</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -835,19 +835,19 @@
         <v>241682</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>215176</v>
+        <v>217505</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>270792</v>
+        <v>272373</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1842066170743541</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1640041352826881</v>
+        <v>0.1657789531184396</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2063937787962528</v>
+        <v>0.207598342251769</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>387</v>
@@ -856,19 +856,19 @@
         <v>394187</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>357185</v>
+        <v>360380</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>432014</v>
+        <v>433742</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1683699486894402</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1525652561483135</v>
+        <v>0.1539301286507759</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1845270780664458</v>
+        <v>0.1852654604678036</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>360647</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>332278</v>
+        <v>331012</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>391934</v>
+        <v>392375</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3504231897224272</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3228579710323324</v>
+        <v>0.3216281271996014</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3808235040561667</v>
+        <v>0.3812520644809308</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>491</v>
@@ -906,19 +906,19 @@
         <v>500202</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>463063</v>
+        <v>464884</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>534630</v>
+        <v>534554</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.381246073707224</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.35293917047435</v>
+        <v>0.354327687597081</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4074871179888125</v>
+        <v>0.4074292156017725</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>855</v>
@@ -927,19 +927,19 @@
         <v>860849</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>812310</v>
+        <v>813062</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>904254</v>
+        <v>904796</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3676965092458353</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3469638390161943</v>
+        <v>0.3472853051217973</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3862361697233401</v>
+        <v>0.3864675940207462</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>299890</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>271491</v>
+        <v>272333</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>328622</v>
+        <v>329199</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2913883020437811</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.263794840506041</v>
+        <v>0.2646124802797736</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3193063708956765</v>
+        <v>0.3198669575268135</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>306</v>
@@ -977,19 +977,19 @@
         <v>310968</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>282850</v>
+        <v>279952</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>341109</v>
+        <v>341652</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2370150599785335</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2155836537995994</v>
+        <v>0.2133749159727363</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2599878555136466</v>
+        <v>0.2604019036464802</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>607</v>
@@ -998,19 +998,19 @@
         <v>610858</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>571005</v>
+        <v>574899</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>653673</v>
+        <v>653562</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.260917227884079</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2438946771650126</v>
+        <v>0.2455580836860985</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2792048179085868</v>
+        <v>0.2791573734789835</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>147428</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>126292</v>
+        <v>126390</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>171650</v>
+        <v>166835</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1432484699568573</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1227114104921394</v>
+        <v>0.1228074076336939</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1667838703446</v>
+        <v>0.1621049354663399</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>134</v>
@@ -1048,19 +1048,19 @@
         <v>133596</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>112046</v>
+        <v>112745</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>157552</v>
+        <v>155326</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1018250040729244</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08539966239183276</v>
+        <v>0.08593284455323211</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1200840764410001</v>
+        <v>0.1183872749481684</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>284</v>
@@ -1069,19 +1069,19 @@
         <v>281024</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>251664</v>
+        <v>251237</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>315167</v>
+        <v>312316</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1200345240349541</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.107493907038988</v>
+        <v>0.1073113522757759</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1346179529753952</v>
+        <v>0.1334001566807003</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>65435</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49423</v>
+        <v>50257</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85041</v>
+        <v>82969</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03875641040502445</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02927266676596174</v>
+        <v>0.0297665813761722</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05036874690586972</v>
+        <v>0.04914130887006517</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>109</v>
@@ -1194,19 +1194,19 @@
         <v>113129</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>93958</v>
+        <v>94272</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>135410</v>
+        <v>137908</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07155974991626925</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05943328887772747</v>
+        <v>0.05963155479456296</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08565372327236047</v>
+        <v>0.08723360027897541</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>169</v>
@@ -1215,19 +1215,19 @@
         <v>178564</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>152903</v>
+        <v>152370</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>206904</v>
+        <v>208750</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0546189058802272</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04676963625876893</v>
+        <v>0.04660663432929256</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0632876010599862</v>
+        <v>0.06385207955541138</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>152754</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130362</v>
+        <v>128509</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>175327</v>
+        <v>173447</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09047402648070653</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07721198400831625</v>
+        <v>0.07611395929716039</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1038439924237516</v>
+        <v>0.1027303310276094</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>248</v>
@@ -1265,19 +1265,19 @@
         <v>257694</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>229275</v>
+        <v>228508</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>288183</v>
+        <v>286595</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1630048192203083</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1450279037688459</v>
+        <v>0.1445427882652861</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1822904541098728</v>
+        <v>0.1812857872784545</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>400</v>
@@ -1286,19 +1286,19 @@
         <v>410448</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>373576</v>
+        <v>375111</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>448226</v>
+        <v>453945</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.125547265632178</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1142688582593605</v>
+        <v>0.1147385013512879</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1371025923642085</v>
+        <v>0.1388520304954685</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>470048</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>433820</v>
+        <v>431687</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>510203</v>
+        <v>504973</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2784031856909792</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2569461621711914</v>
+        <v>0.2556826127798051</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3021865388542263</v>
+        <v>0.2990890760560413</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>654</v>
@@ -1336,19 +1336,19 @@
         <v>673374</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>638048</v>
+        <v>635584</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>714348</v>
+        <v>716770</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4259433693005309</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4035976795343728</v>
+        <v>0.4020394797782293</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4518615495263096</v>
+        <v>0.4533933964181379</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1110</v>
@@ -1357,19 +1357,19 @@
         <v>1143422</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1084995</v>
+        <v>1090026</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1195419</v>
+        <v>1197220</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3497482234154108</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3318766545852316</v>
+        <v>0.3334155668878403</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3656531800251897</v>
+        <v>0.3662038667501974</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>529149</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>489450</v>
+        <v>494288</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>564013</v>
+        <v>568101</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3134081119124124</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2898946402875835</v>
+        <v>0.2927605551675913</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.334057748029553</v>
+        <v>0.3364787646028197</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>384</v>
@@ -1407,19 +1407,19 @@
         <v>385533</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>355005</v>
+        <v>351270</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>420001</v>
+        <v>418674</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2438692053388338</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2245587487755297</v>
+        <v>0.2221963111192579</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2656720541982898</v>
+        <v>0.264832481282229</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>893</v>
@@ -1428,19 +1428,19 @@
         <v>914682</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>862814</v>
+        <v>859992</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>965353</v>
+        <v>962785</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2797816395071924</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2639163197022499</v>
+        <v>0.2630531255453219</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2952807212309585</v>
+        <v>0.294495466842239</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>470985</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>436047</v>
+        <v>437582</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>507660</v>
+        <v>512637</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2789582655108774</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2582650651978884</v>
+        <v>0.2591739930188421</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.300680164530405</v>
+        <v>0.303628045227644</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>153</v>
@@ -1478,19 +1478,19 @@
         <v>151170</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>127610</v>
+        <v>131543</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>174692</v>
+        <v>177440</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09562285622405768</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08071988108943953</v>
+        <v>0.08320735376762052</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1105015186589587</v>
+        <v>0.1122397435854426</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>621</v>
@@ -1499,19 +1499,19 @@
         <v>622155</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>579375</v>
+        <v>577436</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>669206</v>
+        <v>665182</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1903039655649917</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1772185167625249</v>
+        <v>0.1766254436702094</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2046959330064979</v>
+        <v>0.2034649683498968</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>37561</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26251</v>
+        <v>27316</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52098</v>
+        <v>54191</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06811757561865124</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04760666361219448</v>
+        <v>0.04953942124259503</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09448151944229737</v>
+        <v>0.09827779101306305</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -1624,19 +1624,19 @@
         <v>37660</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26392</v>
+        <v>26690</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50262</v>
+        <v>50643</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07904861650442277</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05539658697400852</v>
+        <v>0.05602216859998615</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1055008265263127</v>
+        <v>0.1063001290896348</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -1645,19 +1645,19 @@
         <v>75220</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>58268</v>
+        <v>59703</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94792</v>
+        <v>94919</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07318429668431288</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05669125236457592</v>
+        <v>0.05808673452202814</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09222641646290361</v>
+        <v>0.09234950954521966</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>76692</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62005</v>
+        <v>61110</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>96322</v>
+        <v>95563</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1390836673084001</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1124493055944412</v>
+        <v>0.1108250787855009</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1746839741451921</v>
+        <v>0.1733067646635699</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>72</v>
@@ -1695,19 +1695,19 @@
         <v>75166</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>59941</v>
+        <v>60592</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>91209</v>
+        <v>93216</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1577747451570168</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1258177491751068</v>
+        <v>0.1271831193652626</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1914490421349538</v>
+        <v>0.1956616708347745</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>142</v>
@@ -1716,19 +1716,19 @@
         <v>151858</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>129826</v>
+        <v>130357</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>178226</v>
+        <v>177413</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1477472958562338</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1263121278630731</v>
+        <v>0.1268290795143042</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1734019696168487</v>
+        <v>0.1726111127555701</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>192890</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>170906</v>
+        <v>171488</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>217515</v>
+        <v>214343</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3498131697082529</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3099446021099561</v>
+        <v>0.3110004716488221</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3944714420297752</v>
+        <v>0.3887186202939379</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>202</v>
@@ -1766,19 +1766,19 @@
         <v>214451</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>193399</v>
+        <v>192966</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>236366</v>
+        <v>235005</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4501377602042652</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4059500765130383</v>
+        <v>0.4050395168858311</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.496137104981536</v>
+        <v>0.4932817757888678</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>387</v>
@@ -1787,19 +1787,19 @@
         <v>407341</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>376806</v>
+        <v>374038</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>440846</v>
+        <v>438366</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3963153026141574</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3666066741095888</v>
+        <v>0.3639143862258998</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4289131820620209</v>
+        <v>0.4265004917139884</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>171902</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>148902</v>
+        <v>150039</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>196398</v>
+        <v>194359</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3117508320218857</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2700397611069836</v>
+        <v>0.272101794716173</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3561757408331926</v>
+        <v>0.3524773599067673</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>107</v>
@@ -1837,19 +1837,19 @@
         <v>112185</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>95236</v>
+        <v>95828</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>131677</v>
+        <v>132021</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.235479989909864</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1999034152769539</v>
+        <v>0.201144613213934</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2763929470614016</v>
+        <v>0.2771155358615697</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>273</v>
@@ -1858,19 +1858,19 @@
         <v>284087</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>254503</v>
+        <v>252873</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>311157</v>
+        <v>312167</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2763980155368839</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2476139896622301</v>
+        <v>0.2460284149673446</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3027344316265181</v>
+        <v>0.3037179689841528</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>72364</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>56550</v>
+        <v>58275</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>87876</v>
+        <v>89604</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.13123475534281</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1025558970288909</v>
+        <v>0.1056835062050622</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1593664810834428</v>
+        <v>0.16249975371234</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -1908,19 +1908,19 @@
         <v>36950</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26302</v>
+        <v>26635</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49300</v>
+        <v>49744</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07755888822443117</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05520809470572688</v>
+        <v>0.05590769844102299</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1034814185115349</v>
+        <v>0.104413629744371</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>109</v>
@@ -1929,19 +1929,19 @@
         <v>109314</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>90746</v>
+        <v>91071</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>129152</v>
+        <v>130253</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1063550893084121</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08828963298910567</v>
+        <v>0.08860642780124037</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1256559182031058</v>
+        <v>0.1267274826535455</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>171703</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>145338</v>
+        <v>146817</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>199881</v>
+        <v>200310</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05252522388182371</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04445995506010206</v>
+        <v>0.04491242693082637</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06114531145882873</v>
+        <v>0.06127658054476685</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>266</v>
@@ -2054,19 +2054,19 @@
         <v>276358</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>244660</v>
+        <v>241997</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>311503</v>
+        <v>310375</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08202169364175385</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07261395411347268</v>
+        <v>0.07182341361150314</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09245258619613132</v>
+        <v>0.09211782400021994</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>426</v>
@@ -2075,19 +2075,19 @@
         <v>448061</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>404132</v>
+        <v>412408</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>491638</v>
+        <v>498864</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06749646209982216</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06087903162292786</v>
+        <v>0.06212562572944566</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07406106462290378</v>
+        <v>0.07514951185978144</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>381950</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>344743</v>
+        <v>342906</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>417744</v>
+        <v>415069</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1168415743340402</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1054596169419573</v>
+        <v>0.1048976858469322</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1277912665500984</v>
+        <v>0.1269730640640118</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>554</v>
@@ -2125,19 +2125,19 @@
         <v>574543</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>533293</v>
+        <v>530407</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>622359</v>
+        <v>620364</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1705212929911171</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1582787571303902</v>
+        <v>0.1574222335496422</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1847130301520613</v>
+        <v>0.1841208504710938</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>929</v>
@@ -2146,19 +2146,19 @@
         <v>956492</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>901617</v>
+        <v>897418</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1016632</v>
+        <v>1017060</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1440872705828152</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1358207426043873</v>
+        <v>0.1351881704255587</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1531468091662268</v>
+        <v>0.1532112548805254</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>1023585</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>974965</v>
+        <v>971892</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1082320</v>
+        <v>1078205</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3131229261679206</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2982497298182122</v>
+        <v>0.2973095570897372</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3310905054508715</v>
+        <v>0.3298317961857907</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1347</v>
@@ -2196,19 +2196,19 @@
         <v>1388027</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1334175</v>
+        <v>1327323</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1440755</v>
+        <v>1451697</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4119592286257509</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3959762224043706</v>
+        <v>0.3939426351943077</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4276088828932292</v>
+        <v>0.4308562808295784</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2352</v>
@@ -2217,19 +2217,19 @@
         <v>2411611</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2334382</v>
+        <v>2334012</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2491357</v>
+        <v>2500272</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3632883134405508</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3516544395277404</v>
+        <v>0.3515986046692191</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3753012376450899</v>
+        <v>0.3766443100793949</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>1000941</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>950575</v>
+        <v>951220</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1059054</v>
+        <v>1058873</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3061959938545494</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2907887255102601</v>
+        <v>0.2909859405000789</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3239732046909603</v>
+        <v>0.3239178519345594</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>797</v>
@@ -2267,19 +2267,19 @@
         <v>808686</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>760797</v>
+        <v>760570</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>858078</v>
+        <v>860952</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2400139924432808</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2258007211727358</v>
+        <v>0.2257333151736725</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2546732287516156</v>
+        <v>0.2555261496371102</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1773</v>
@@ -2288,19 +2288,19 @@
         <v>1809627</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1737688</v>
+        <v>1736915</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1881095</v>
+        <v>1882730</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2726046347211926</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2617675844603933</v>
+        <v>0.2616510986068691</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2833705649800397</v>
+        <v>0.2836168580467683</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>690777</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>643319</v>
+        <v>645960</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>739595</v>
+        <v>737508</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2113142817616661</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1967964190669245</v>
+        <v>0.197604567900685</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2262481744160535</v>
+        <v>0.2256098314813457</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>323</v>
@@ -2338,19 +2338,19 @@
         <v>321716</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>290345</v>
+        <v>288502</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>354848</v>
+        <v>351789</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09548379229809743</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08617281083362027</v>
+        <v>0.08562594140090872</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.105317061921012</v>
+        <v>0.1044091780632276</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1014</v>
@@ -2359,19 +2359,19 @@
         <v>1012493</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>951402</v>
+        <v>953394</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1068867</v>
+        <v>1072314</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1525233191556192</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1433203884773547</v>
+        <v>0.1436205394687007</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1610155327162712</v>
+        <v>0.1615348344736267</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>95809</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78388</v>
+        <v>78844</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>114459</v>
+        <v>118237</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09947958958586313</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08139117178294136</v>
+        <v>0.08186455591612425</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1188448648655152</v>
+        <v>0.1227674170641733</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>190</v>
@@ -2723,19 +2723,19 @@
         <v>203826</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>175353</v>
+        <v>175767</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>229344</v>
+        <v>230079</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1539171664313665</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1324159685670372</v>
+        <v>0.1327291498418142</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1731868724248018</v>
+        <v>0.1737423273124915</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>281</v>
@@ -2744,19 +2744,19 @@
         <v>299634</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>266888</v>
+        <v>267096</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>331814</v>
+        <v>333401</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1309960395324897</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1166800487735032</v>
+        <v>0.1167709843142692</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.145064496097382</v>
+        <v>0.1457583343107288</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>268921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>241126</v>
+        <v>242796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>299104</v>
+        <v>296915</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2792251831454699</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2503649658963567</v>
+        <v>0.2520988818877953</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3105647070484565</v>
+        <v>0.3082912638483999</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>400</v>
@@ -2794,19 +2794,19 @@
         <v>420585</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>387272</v>
+        <v>386641</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>457361</v>
+        <v>453591</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3176012210291082</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2924453437249957</v>
+        <v>0.291968440406188</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3453723356161914</v>
+        <v>0.3425253887551389</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>645</v>
@@ -2815,19 +2815,19 @@
         <v>689506</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>646115</v>
+        <v>644883</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>735936</v>
+        <v>732590</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3014428597430541</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2824729956831292</v>
+        <v>0.2819341627203776</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.321741453405048</v>
+        <v>0.3202784425420778</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>286189</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>254488</v>
+        <v>257705</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>316274</v>
+        <v>315199</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.297154519698081</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2642386237943518</v>
+        <v>0.2675790907918296</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3283920297794222</v>
+        <v>0.3272765923850176</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>366</v>
@@ -2865,19 +2865,19 @@
         <v>395915</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>362404</v>
+        <v>362613</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>431370</v>
+        <v>431010</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2989717005005104</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2736660058961778</v>
+        <v>0.2738239232208059</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3257455034678509</v>
+        <v>0.32547385319356</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>637</v>
@@ -2886,19 +2886,19 @@
         <v>682104</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>641360</v>
+        <v>638557</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>728298</v>
+        <v>729839</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2982065703425518</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2803940948784299</v>
+        <v>0.2791687012121669</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3184022800893506</v>
+        <v>0.3190758435159496</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>215458</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>189060</v>
+        <v>189051</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>245710</v>
+        <v>242411</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2237136026576418</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1963036359147834</v>
+        <v>0.1962943139835802</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2551244500790022</v>
+        <v>0.2516990036229078</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>187</v>
@@ -2936,19 +2936,19 @@
         <v>204159</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>178287</v>
+        <v>179117</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>231763</v>
+        <v>231204</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1541690851509361</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1346321861939167</v>
+        <v>0.1352590328619897</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1750138451250907</v>
+        <v>0.1745914845284854</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>385</v>
@@ -2957,19 +2957,19 @@
         <v>419617</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>380162</v>
+        <v>382482</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>456796</v>
+        <v>456473</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1834510408010989</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1662017406651053</v>
+        <v>0.1672160077758597</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1997052084478974</v>
+        <v>0.1995637646946948</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>96721</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>79390</v>
+        <v>80822</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>116981</v>
+        <v>118203</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1004271049129442</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08243151038173144</v>
+        <v>0.08391904697917942</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1214630660892747</v>
+        <v>0.1227323287742632</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>92</v>
@@ -3007,19 +3007,19 @@
         <v>99770</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>82790</v>
+        <v>82476</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>120375</v>
+        <v>121304</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07534082688807869</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06251784220094976</v>
+        <v>0.06228138455457755</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0909000734720414</v>
+        <v>0.0916014849883101</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>185</v>
@@ -3028,19 +3028,19 @@
         <v>196492</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>169012</v>
+        <v>171861</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>225260</v>
+        <v>228427</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08590348958080547</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07388997245167968</v>
+        <v>0.07513533285783565</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09848068493414169</v>
+        <v>0.09986542746682417</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>115582</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>95102</v>
+        <v>94499</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>142409</v>
+        <v>140939</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05900928957714486</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04855365515537783</v>
+        <v>0.04824550617530095</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07270567695247288</v>
+        <v>0.07195529396608571</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>138</v>
@@ -3153,19 +3153,19 @@
         <v>152697</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>129534</v>
+        <v>129867</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>178765</v>
+        <v>180768</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08722089949367021</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07398980452861412</v>
+        <v>0.07418040819693165</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1021110151016936</v>
+        <v>0.1032553182990641</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>241</v>
@@ -3174,19 +3174,19 @@
         <v>268279</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>238575</v>
+        <v>236901</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>301527</v>
+        <v>302748</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07232408641801769</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06431628428365131</v>
+        <v>0.06386509634161563</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08128717851731836</v>
+        <v>0.08161647184129904</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>323444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>291505</v>
+        <v>289699</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>360293</v>
+        <v>356954</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1651313811053459</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1488251505796238</v>
+        <v>0.1479031572676856</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1839446770775483</v>
+        <v>0.1822399216721751</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>393</v>
@@ -3224,19 +3224,19 @@
         <v>421004</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>385830</v>
+        <v>384957</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>463827</v>
+        <v>458013</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2404786094338056</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2203867318399647</v>
+        <v>0.2198883135796446</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2649392013345596</v>
+        <v>0.2616181692246387</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>692</v>
@@ -3245,19 +3245,19 @@
         <v>744448</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>693244</v>
+        <v>697356</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>798260</v>
+        <v>795811</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2006923803069065</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1868883532788098</v>
+        <v>0.1879970540372396</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.215199274808502</v>
+        <v>0.2145389296065969</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>595111</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>552308</v>
+        <v>555828</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>635405</v>
+        <v>637451</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3038286895626858</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2819760311218317</v>
+        <v>0.2837733899043846</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3244004794628016</v>
+        <v>0.3254453426105968</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>525</v>
@@ -3295,19 +3295,19 @@
         <v>572063</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>531139</v>
+        <v>531349</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>609235</v>
+        <v>612177</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3267637610336986</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3033878061630417</v>
+        <v>0.3035078270574542</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3479963292428803</v>
+        <v>0.3496767496141598</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1094</v>
@@ -3316,19 +3316,19 @@
         <v>1167174</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1106808</v>
+        <v>1111788</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1221584</v>
+        <v>1222702</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3146531628228437</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2983793458537095</v>
+        <v>0.2997218040177602</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3293212269611296</v>
+        <v>0.3296225353229608</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>574619</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>536052</v>
+        <v>528832</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>617970</v>
+        <v>613830</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2933670269669209</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2736764926604716</v>
+        <v>0.2699905966327653</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3154990279919439</v>
+        <v>0.3133856665764236</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>388</v>
@@ -3366,19 +3366,19 @@
         <v>408069</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>371245</v>
+        <v>376095</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>446556</v>
+        <v>446482</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2330899334858701</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.212055861457118</v>
+        <v>0.2148263976226979</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2550735998413846</v>
+        <v>0.2550312291417866</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>936</v>
@@ -3387,19 +3387,19 @@
         <v>982689</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>928671</v>
+        <v>932943</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1039959</v>
+        <v>1035491</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2649185528729852</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2503561011106509</v>
+        <v>0.2515077019005254</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2803576053342279</v>
+        <v>0.2791531137044754</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>349949</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>314916</v>
+        <v>314904</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>387226</v>
+        <v>388542</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1786636127879025</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1607775010738669</v>
+        <v>0.1607715329495917</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1976951566380353</v>
+        <v>0.1983665395706468</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>186</v>
@@ -3437,19 +3437,19 @@
         <v>196860</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>172020</v>
+        <v>170753</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>225555</v>
+        <v>223719</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1124467965529555</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09825809825712702</v>
+        <v>0.09753466368425692</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1288375543410978</v>
+        <v>0.1277885557236452</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>518</v>
@@ -3458,19 +3458,19 @@
         <v>546809</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>505916</v>
+        <v>497601</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>596317</v>
+        <v>590214</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1474118175792469</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1363874414583781</v>
+        <v>0.134145877194026</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1607582949079206</v>
+        <v>0.1591130278563412</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>28494</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19363</v>
+        <v>18855</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40950</v>
+        <v>40011</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05945755742801592</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04040468832224588</v>
+        <v>0.03934387345075822</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08544866348658255</v>
+        <v>0.08348868932957919</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -3583,19 +3583,19 @@
         <v>40989</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28445</v>
+        <v>28159</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56597</v>
+        <v>55036</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08998217343727931</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06244333411010558</v>
+        <v>0.06181661733979486</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1242452821501041</v>
+        <v>0.1208179101054303</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>60</v>
@@ -3604,19 +3604,19 @@
         <v>69483</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53671</v>
+        <v>53501</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>87156</v>
+        <v>87938</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07433273085773916</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05741650749458395</v>
+        <v>0.05723511301254274</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09323860356861281</v>
+        <v>0.0940756393820634</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>105384</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>85258</v>
+        <v>85726</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>125532</v>
+        <v>126549</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2199007312891324</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1779030917812412</v>
+        <v>0.1788796185808161</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2619417010478943</v>
+        <v>0.2640630872166059</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>105</v>
@@ -3654,19 +3654,19 @@
         <v>118382</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>99880</v>
+        <v>98560</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>138563</v>
+        <v>138005</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.259879628539184</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2192635680146634</v>
+        <v>0.2163658704791922</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3041817714248294</v>
+        <v>0.3029578274431466</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>195</v>
@@ -3675,19 +3675,19 @@
         <v>223766</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>195916</v>
+        <v>195444</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>255033</v>
+        <v>254713</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2393831395180559</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2095888660523969</v>
+        <v>0.2090844613728898</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2728325272958004</v>
+        <v>0.2724894123674518</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>151205</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>131703</v>
+        <v>130632</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>174664</v>
+        <v>171879</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3155134338459867</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2748189606383862</v>
+        <v>0.2725840222084772</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3644632533183141</v>
+        <v>0.3586512103474044</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>151</v>
@@ -3725,19 +3725,19 @@
         <v>165291</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>145739</v>
+        <v>144454</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>187704</v>
+        <v>187004</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3628582693229113</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3199361853624196</v>
+        <v>0.3171157382860085</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4120597053423672</v>
+        <v>0.4105233171326758</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>291</v>
@@ -3746,19 +3746,19 @@
         <v>316497</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>285638</v>
+        <v>286932</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>347605</v>
+        <v>348103</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3385853911969733</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3055725001657401</v>
+        <v>0.3069568354116686</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3718644545407715</v>
+        <v>0.3723979958203444</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>141785</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>121450</v>
+        <v>121690</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>163441</v>
+        <v>163141</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.295856397277045</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2534232189953877</v>
+        <v>0.2539246329476461</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3410453800971009</v>
+        <v>0.3404198446240415</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>81</v>
@@ -3796,19 +3796,19 @@
         <v>88180</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>73062</v>
+        <v>70579</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>106998</v>
+        <v>106256</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1935786179216423</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1603913656662161</v>
+        <v>0.1549390597243775</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2348889681107065</v>
+        <v>0.2332591304295252</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>211</v>
@@ -3817,19 +3817,19 @@
         <v>229965</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>202759</v>
+        <v>204948</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>257263</v>
+        <v>260094</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2460146660835427</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2169095301617109</v>
+        <v>0.2192511910968868</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2752180786855697</v>
+        <v>0.2782457271315137</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>52367</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>39477</v>
+        <v>40513</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>67783</v>
+        <v>68872</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.10927188015982</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0823754354936115</v>
+        <v>0.08453709834654149</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.14143903310836</v>
+        <v>0.1437127194168991</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>38</v>
@@ -3867,19 +3867,19 @@
         <v>42683</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31016</v>
+        <v>30923</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>56460</v>
+        <v>57159</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09370131077898312</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06808815085456579</v>
+        <v>0.06788378169383442</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1239446105140805</v>
+        <v>0.1254788657266786</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>88</v>
@@ -3888,19 +3888,19 @@
         <v>95050</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>77355</v>
+        <v>77818</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>115762</v>
+        <v>115858</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.101684072343689</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0827538759916414</v>
+        <v>0.08324932017442449</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1238407430203917</v>
+        <v>0.1239441346170438</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>239885</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>210622</v>
+        <v>212115</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>271893</v>
+        <v>275199</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07053273078354035</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06192866897219511</v>
+        <v>0.06236755898628156</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07994403692170676</v>
+        <v>0.08091598588220859</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>362</v>
@@ -4013,19 +4013,19 @@
         <v>397512</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>360459</v>
+        <v>360826</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>440768</v>
+        <v>439197</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1125944546502936</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1020991764565563</v>
+        <v>0.1022031572828743</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1248466798326188</v>
+        <v>0.1244017696100773</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>582</v>
@@ -4034,19 +4034,19 @@
         <v>637397</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>582544</v>
+        <v>589437</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>686162</v>
+        <v>689411</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09195631254423511</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08404282105170384</v>
+        <v>0.0850372583506661</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0989917052861093</v>
+        <v>0.09946036691957533</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>697749</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>646557</v>
+        <v>652110</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>752063</v>
+        <v>750600</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2051576566927025</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1901057836257111</v>
+        <v>0.1917385528683663</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2211273368302727</v>
+        <v>0.2206972052537065</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>898</v>
@@ -4084,19 +4084,19 @@
         <v>959971</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>910371</v>
+        <v>910384</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1015222</v>
+        <v>1013513</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2719099819700575</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2578606962715267</v>
+        <v>0.2578644055393106</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2875595560428932</v>
+        <v>0.2870754479477299</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1532</v>
@@ -4105,19 +4105,19 @@
         <v>1657721</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1581184</v>
+        <v>1584425</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1729814</v>
+        <v>1730791</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2391570691472709</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2281151785061639</v>
+        <v>0.2285828226577329</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2495577977221453</v>
+        <v>0.2496988312398059</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>1032505</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>979617</v>
+        <v>977767</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1086312</v>
+        <v>1088196</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3035851985386185</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2880344718241857</v>
+        <v>0.2874905178103382</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3194057606834179</v>
+        <v>0.3199599227484026</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1042</v>
@@ -4155,19 +4155,19 @@
         <v>1133269</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1078715</v>
+        <v>1078840</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1196794</v>
+        <v>1191956</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3209963222351907</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3055439911461861</v>
+        <v>0.3055792126980684</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3389895052301422</v>
+        <v>0.337619146480149</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2022</v>
@@ -4176,19 +4176,19 @@
         <v>2165775</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2080425</v>
+        <v>2077846</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2242183</v>
+        <v>2238330</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3124533237072572</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3001400056563037</v>
+        <v>0.2997678974867404</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3234765706288688</v>
+        <v>0.3229207068422535</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>931863</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>876418</v>
+        <v>875220</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>984457</v>
+        <v>987085</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2739935221535429</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2576910588247084</v>
+        <v>0.2573388753558368</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2894575731213194</v>
+        <v>0.2902302727754523</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>656</v>
@@ -4226,19 +4226,19 @@
         <v>700408</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>650369</v>
+        <v>648011</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>749530</v>
+        <v>753194</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1983892890789181</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1842157304706404</v>
+        <v>0.1835477247780494</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2123027400776399</v>
+        <v>0.2133407937575285</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1532</v>
@@ -4247,19 +4247,19 @@
         <v>1632271</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1561461</v>
+        <v>1555886</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1705028</v>
+        <v>1709572</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2354855077445302</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2252698139934352</v>
+        <v>0.2244655569720422</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2459820695818385</v>
+        <v>0.2466375383569788</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>499038</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>455510</v>
+        <v>456794</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>542542</v>
+        <v>542989</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1467308918315958</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1339326195790595</v>
+        <v>0.1343099919426704</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1595222547760426</v>
+        <v>0.1596539350265525</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>316</v>
@@ -4297,19 +4297,19 @@
         <v>339314</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>307298</v>
+        <v>304665</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>381709</v>
+        <v>375367</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09610995206554004</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08704157161642459</v>
+        <v>0.08629575841412813</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1081183331563077</v>
+        <v>0.1063220489881508</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>791</v>
@@ -4318,19 +4318,19 @@
         <v>838351</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>782893</v>
+        <v>778992</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>897699</v>
+        <v>899236</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1209477868567066</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1129468315484515</v>
+        <v>0.1123841231671037</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1295097769552719</v>
+        <v>0.1297314677403011</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>74916</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59473</v>
+        <v>60966</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94425</v>
+        <v>94126</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09955078647152595</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07903033940817132</v>
+        <v>0.08101334259462548</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1254754936014436</v>
+        <v>0.1250777153494281</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>116</v>
@@ -4682,19 +4682,19 @@
         <v>129523</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>108552</v>
+        <v>109835</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150882</v>
+        <v>153477</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.130614640751082</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1094666611704589</v>
+        <v>0.1107605523054801</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1521530041291738</v>
+        <v>0.1547702216581461</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>193</v>
@@ -4703,19 +4703,19 @@
         <v>204439</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>180075</v>
+        <v>177809</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>230475</v>
+        <v>232230</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1172119302612596</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1032430734548297</v>
+        <v>0.1019441107473635</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1321391419740393</v>
+        <v>0.1331450726876215</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>147891</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>126421</v>
+        <v>128152</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>170552</v>
+        <v>169825</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1965228625935372</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1679919663352424</v>
+        <v>0.1702921392863456</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2266357072476776</v>
+        <v>0.2256691326768785</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>235</v>
@@ -4753,19 +4753,19 @@
         <v>263605</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>234352</v>
+        <v>231361</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>293606</v>
+        <v>293615</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2658262532135863</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2363270065161608</v>
+        <v>0.2333106694833333</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2960795725675459</v>
+        <v>0.2960891979714287</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>386</v>
@@ -4774,19 +4774,19 @@
         <v>411496</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>375573</v>
+        <v>377338</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>450418</v>
+        <v>449733</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2359248355696433</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2153285678448454</v>
+        <v>0.2163407929744374</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.258240180583524</v>
+        <v>0.2578474280979724</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>275830</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>250200</v>
+        <v>250821</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>301918</v>
+        <v>302618</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3665321585675191</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3324744145570351</v>
+        <v>0.333299255290481</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4011987223454009</v>
+        <v>0.4021285588937041</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>320</v>
@@ -4824,19 +4824,19 @@
         <v>355442</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>326222</v>
+        <v>324175</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>386588</v>
+        <v>386073</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3584370655777835</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.328970986486736</v>
+        <v>0.3269066295436783</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3898453244529791</v>
+        <v>0.3893263419412348</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>599</v>
@@ -4845,19 +4845,19 @@
         <v>631272</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>589138</v>
+        <v>589286</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>669318</v>
+        <v>670412</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3619297483193781</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3377725875712032</v>
+        <v>0.3378574970690061</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3837430357931407</v>
+        <v>0.3843697295199056</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>175519</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>153625</v>
+        <v>150452</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>198265</v>
+        <v>197031</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2332354597130704</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.20414246222604</v>
+        <v>0.1999249943292591</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2634608706817292</v>
+        <v>0.2618210238798248</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>174</v>
@@ -4895,19 +4895,19 @@
         <v>194083</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>168687</v>
+        <v>169139</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>221073</v>
+        <v>222088</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1957189147844016</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1701086457432917</v>
+        <v>0.1705637366194613</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2229357828301966</v>
+        <v>0.2239596353528917</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>351</v>
@@ -4916,19 +4916,19 @@
         <v>369603</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>335776</v>
+        <v>334975</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>405064</v>
+        <v>405443</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2119056823932197</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1925116804989815</v>
+        <v>0.1920526096791751</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2322370562827898</v>
+        <v>0.2324541827435436</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>78384</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>61471</v>
+        <v>63222</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>97815</v>
+        <v>97251</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1041587326543474</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08168474533796916</v>
+        <v>0.08401122829807137</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1299803680837385</v>
+        <v>0.1292300607086357</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>44</v>
@@ -4966,19 +4966,19 @@
         <v>48990</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35721</v>
+        <v>35462</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>65409</v>
+        <v>66476</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04940312567314663</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0360216017410633</v>
+        <v>0.03576102546993534</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0659601408113427</v>
+        <v>0.06703622942399344</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>120</v>
@@ -4987,19 +4987,19 @@
         <v>127374</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>105013</v>
+        <v>106341</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>150071</v>
+        <v>150473</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07302780345649926</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0602075534491622</v>
+        <v>0.0609690645167244</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08604095570192492</v>
+        <v>0.08627116187288017</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>99330</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79471</v>
+        <v>80276</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>121887</v>
+        <v>120657</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04798847108361542</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0383940293120759</v>
+        <v>0.0387832449196364</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0588862018838945</v>
+        <v>0.05829215507805077</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>139</v>
@@ -5112,19 +5112,19 @@
         <v>148735</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>126911</v>
+        <v>127253</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>172179</v>
+        <v>173794</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07505194184990295</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06403947528375911</v>
+        <v>0.06421233220090171</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08688205255717328</v>
+        <v>0.08769695970007867</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>226</v>
@@ -5133,19 +5133,19 @@
         <v>248065</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>220707</v>
+        <v>219056</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>282003</v>
+        <v>282571</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06122590087006798</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05447361463292003</v>
+        <v>0.0540661217026846</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0696023956452916</v>
+        <v>0.06974247818210159</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>309611</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>275411</v>
+        <v>278227</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>341031</v>
+        <v>343584</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1495797472132358</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1330569004213679</v>
+        <v>0.13441716155607</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1647593518647335</v>
+        <v>0.1659924477575323</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>386</v>
@@ -5183,19 +5183,19 @@
         <v>405033</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>370672</v>
+        <v>369966</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>442959</v>
+        <v>443096</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2043810970414063</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1870420636500757</v>
+        <v>0.1866862431543817</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2235184939112752</v>
+        <v>0.2235878114834143</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>681</v>
@@ -5204,19 +5204,19 @@
         <v>714644</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>667824</v>
+        <v>664990</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>763008</v>
+        <v>762665</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1763844769841447</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1648285277185995</v>
+        <v>0.1641290762942539</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1883212320597132</v>
+        <v>0.1882366426775546</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>794682</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>755395</v>
+        <v>751571</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>843779</v>
+        <v>843223</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3839277580082061</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3649473180589673</v>
+        <v>0.3630998275392852</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4076475436625214</v>
+        <v>0.4073788100088634</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>736</v>
@@ -5254,19 +5254,19 @@
         <v>765955</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>721861</v>
+        <v>723468</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>811305</v>
+        <v>811203</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3865033278657527</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3642533763078644</v>
+        <v>0.3650643336271259</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4093870531544431</v>
+        <v>0.4093357956206152</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1481</v>
@@ -5275,19 +5275,19 @@
         <v>1560637</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1501793</v>
+        <v>1501863</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1626827</v>
+        <v>1630194</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3851875345329469</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3706640817692856</v>
+        <v>0.3706812471223152</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4015242922168939</v>
+        <v>0.4023550794594555</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>607415</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>565782</v>
+        <v>559953</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>650559</v>
+        <v>648064</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2934548027353584</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2733409861185299</v>
+        <v>0.2705250104933495</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3142984522031916</v>
+        <v>0.3130935025258626</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>479</v>
@@ -5325,19 +5325,19 @@
         <v>497888</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>458508</v>
+        <v>458365</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>536248</v>
+        <v>539374</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2512359459672735</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2313646905561775</v>
+        <v>0.2312922279554167</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2705923063763355</v>
+        <v>0.2721699785848702</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1053</v>
@@ -5346,19 +5346,19 @@
         <v>1105303</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1048566</v>
+        <v>1049291</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1168598</v>
+        <v>1163010</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2728044893680133</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.258800994524057</v>
+        <v>0.2589801435413587</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2884267869676925</v>
+        <v>0.2870475853704859</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>258836</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>230470</v>
+        <v>228389</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>290379</v>
+        <v>288246</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1250492209595843</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1113449006733788</v>
+        <v>0.1103394680424287</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.140288208107283</v>
+        <v>0.1392575133754972</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>163</v>
@@ -5396,19 +5396,19 @@
         <v>164144</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>142171</v>
+        <v>140741</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>191293</v>
+        <v>189715</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0828276872756646</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07174007137708759</v>
+        <v>0.07101860834480804</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09652710589121004</v>
+        <v>0.09573060088785376</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>408</v>
@@ -5417,19 +5417,19 @@
         <v>422980</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>383862</v>
+        <v>385965</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>463565</v>
+        <v>460072</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1043975982448272</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09474263539352548</v>
+        <v>0.0952616358363977</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.114414585286539</v>
+        <v>0.1135523952903614</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>42862</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30305</v>
+        <v>31135</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58375</v>
+        <v>58896</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07881454206593286</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05572380853993434</v>
+        <v>0.05724983398048206</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1073396854063817</v>
+        <v>0.1082965418031423</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -5542,19 +5542,19 @@
         <v>43843</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32548</v>
+        <v>31572</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59825</v>
+        <v>57988</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07998312999138121</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05937714644576987</v>
+        <v>0.05759747734806445</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1091383817390087</v>
+        <v>0.1057876222418406</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>77</v>
@@ -5563,19 +5563,19 @@
         <v>86706</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68382</v>
+        <v>67497</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>105836</v>
+        <v>107068</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07940114610044324</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0626213045176513</v>
+        <v>0.0618108065646046</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09691955677252501</v>
+        <v>0.09804844903044982</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>92711</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>75005</v>
+        <v>75343</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>111897</v>
+        <v>111978</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1704757093273137</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1379182601437355</v>
+        <v>0.1385388319405253</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2057538704373126</v>
+        <v>0.205903279575406</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>113</v>
@@ -5613,19 +5613,19 @@
         <v>119287</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>100498</v>
+        <v>101043</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>139786</v>
+        <v>139862</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2176152672737335</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1833382859606856</v>
+        <v>0.184332909022821</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2550121985842048</v>
+        <v>0.2551492993077835</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>199</v>
@@ -5634,19 +5634,19 @@
         <v>211998</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>187239</v>
+        <v>188253</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>240295</v>
+        <v>239128</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1941386740681111</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1714654486420783</v>
+        <v>0.1723938137977835</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2200514759137253</v>
+        <v>0.2189826482648226</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>229187</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>205388</v>
+        <v>204414</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>251490</v>
+        <v>253174</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4214254712074054</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3776646235001111</v>
+        <v>0.3758724832574372</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4624346808034095</v>
+        <v>0.4655318240235906</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>207</v>
@@ -5684,19 +5684,19 @@
         <v>211338</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>189113</v>
+        <v>188788</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>234483</v>
+        <v>233406</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3855431111642992</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3449989505977978</v>
+        <v>0.3444062453716392</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4277677797668208</v>
+        <v>0.4258025078033096</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>418</v>
@@ -5705,19 +5705,19 @@
         <v>440525</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>407975</v>
+        <v>406696</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>475026</v>
+        <v>473512</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4034133587161998</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3736051725189807</v>
+        <v>0.3724339106367364</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4350077627765603</v>
+        <v>0.4336215808002295</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>138050</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>118270</v>
+        <v>116144</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>160082</v>
+        <v>160327</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2538436611836084</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.21747290300788</v>
+        <v>0.2135634338111355</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.294355646134948</v>
+        <v>0.2948064067106267</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>117</v>
@@ -5755,19 +5755,19 @@
         <v>125094</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>105549</v>
+        <v>106460</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>146350</v>
+        <v>146632</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2282088166597324</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1925523226397654</v>
+        <v>0.1942147769825425</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2669852005084807</v>
+        <v>0.2675010089996097</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>247</v>
@@ -5776,19 +5776,19 @@
         <v>263144</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>235219</v>
+        <v>233837</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>292380</v>
+        <v>292281</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2409755638036165</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2154033719742376</v>
+        <v>0.2141380134632321</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2677489476590617</v>
+        <v>0.2676577775235947</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>41027</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28999</v>
+        <v>28587</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>56594</v>
+        <v>57569</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07544061621573959</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05332212054420041</v>
+        <v>0.05256489152711847</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1040647308113534</v>
+        <v>0.1058575577100267</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>47</v>
@@ -5826,19 +5826,19 @@
         <v>48594</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36386</v>
+        <v>36008</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>64054</v>
+        <v>63014</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0886496749108536</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06637964409895354</v>
+        <v>0.06568857941745335</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1168532014742924</v>
+        <v>0.1149560182499718</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>82</v>
@@ -5847,19 +5847,19 @@
         <v>89621</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>73536</v>
+        <v>71980</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>111092</v>
+        <v>109721</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08207125731162931</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06734078139287819</v>
+        <v>0.06591590336749784</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1017333532252015</v>
+        <v>0.1004774242308492</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>217108</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>188109</v>
+        <v>190459</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>248640</v>
+        <v>246413</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06449557785362815</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05588094527579884</v>
+        <v>0.05657898310926963</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07386263600640645</v>
+        <v>0.07320089970504504</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>296</v>
@@ -5972,19 +5972,19 @@
         <v>322101</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>287357</v>
+        <v>289962</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>361491</v>
+        <v>359180</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.091465565554853</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08159938236912147</v>
+        <v>0.08233917537180012</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1026511078080472</v>
+        <v>0.10199476203647</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>496</v>
@@ -5993,19 +5993,19 @@
         <v>539209</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>493753</v>
+        <v>489371</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>586345</v>
+        <v>589693</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07828462142035808</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07168508954740352</v>
+        <v>0.0710488810589842</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08512791286658941</v>
+        <v>0.08561409573156359</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>550214</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>510604</v>
+        <v>506551</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>596497</v>
+        <v>593061</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1634499440193056</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1516830640387152</v>
+        <v>0.1504790891700882</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1771991272420367</v>
+        <v>0.1761783348937161</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>734</v>
@@ -6043,19 +6043,19 @@
         <v>787925</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>737362</v>
+        <v>737934</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>840000</v>
+        <v>842738</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2237435973974161</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2093853748727339</v>
+        <v>0.2095477419509334</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.238531162933773</v>
+        <v>0.2393084334870057</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1266</v>
@@ -6064,19 +6064,19 @@
         <v>1338139</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1278348</v>
+        <v>1272320</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1405230</v>
+        <v>1399051</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1942764991678762</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1855958093577885</v>
+        <v>0.1847206537481682</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2040170484838509</v>
+        <v>0.2031199334456825</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>1299700</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1239411</v>
+        <v>1242028</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1357230</v>
+        <v>1360512</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3860968794477188</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3681870890476545</v>
+        <v>0.3689645352757613</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4031870433722071</v>
+        <v>0.4041621104943919</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1263</v>
@@ -6114,19 +6114,19 @@
         <v>1332734</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1276965</v>
+        <v>1277238</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1393007</v>
+        <v>1399038</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3784506096409406</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3626139212140221</v>
+        <v>0.3626915145757069</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3955660140239323</v>
+        <v>0.3972784666501871</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2498</v>
@@ -6135,19 +6135,19 @@
         <v>2632434</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2549209</v>
+        <v>2555639</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2709138</v>
+        <v>2723400</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.382187543312432</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.370104544782082</v>
+        <v>0.3710381634335608</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.393323763687888</v>
+        <v>0.3953943145479199</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>920984</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>868078</v>
+        <v>868466</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>975927</v>
+        <v>975205</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2735931006118907</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.257876613945878</v>
+        <v>0.2579919414998294</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2899148402134367</v>
+        <v>0.2897003289191143</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>770</v>
@@ -6185,19 +6185,19 @@
         <v>817065</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>768871</v>
+        <v>769074</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>870721</v>
+        <v>873007</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2320184164352489</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2183328606422935</v>
+        <v>0.2183904905067179</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2472548838764947</v>
+        <v>0.2479038463100255</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1651</v>
@@ -6206,19 +6206,19 @@
         <v>1738049</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1672410</v>
+        <v>1663776</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1814327</v>
+        <v>1812724</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2523370608340633</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2428073721024236</v>
+        <v>0.2415537553547732</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2634114657127624</v>
+        <v>0.2631786715293913</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>378247</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>343482</v>
+        <v>340943</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>417165</v>
+        <v>416189</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1123644980674568</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1020369636103762</v>
+        <v>0.1012827709045032</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1239257145293311</v>
+        <v>0.1236357601247231</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>254</v>
@@ -6256,19 +6256,19 @@
         <v>261728</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>232936</v>
+        <v>232898</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>292076</v>
+        <v>293666</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07432181097154142</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06614582358638973</v>
+        <v>0.06613504941238144</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08293962234467746</v>
+        <v>0.08339095558016811</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>610</v>
@@ -6277,19 +6277,19 @@
         <v>639976</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>595910</v>
+        <v>592537</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>692804</v>
+        <v>688536</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09291427526527032</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08651660815627107</v>
+        <v>0.08602689914928413</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1005841308349611</v>
+        <v>0.0999644269916647</v>
       </c>
     </row>
     <row r="27">
